--- a/test/config2/CardConfig.xlsx
+++ b/test/config2/CardConfig.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\quan\IdeaProjects\quan\quan.java\quan-config\config2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\quan\IdeaProjects\qconfig\test\config2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1129,7 +1129,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/test/config2/CardConfig.xlsx
+++ b/test/config2/CardConfig.xlsx
@@ -162,15 +162,15 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>datetime{#this.after('2020-04-04')}</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>set:int{#this.size&gt;5}</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>int {#this&gt;=0&amp;&amp; #this in {10,12}}</t>
+    <t>datetime{#value.after('2020-04-04')}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>set:int{#value.size&gt;5}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>int {#value&gt;=0&amp;&amp; #value in {10,12}}</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1129,7 +1129,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
